--- a/data/HeapSort.xlsx
+++ b/data/HeapSort.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Массив отсортирован по возрастанию</t>
   </si>
@@ -77,24 +77,6 @@
     <t>22.02</t>
   </si>
   <si>
-    <t>43.2646</t>
-  </si>
-  <si>
-    <t>28.7672</t>
-  </si>
-  <si>
-    <t>28.4351</t>
-  </si>
-  <si>
-    <t>41.7268</t>
-  </si>
-  <si>
-    <t>30.4318</t>
-  </si>
-  <si>
-    <t>27.7038</t>
-  </si>
-  <si>
     <t>47.8038</t>
   </si>
   <si>
@@ -111,24 +93,6 @@
   </si>
   <si>
     <t>41.8385</t>
-  </si>
-  <si>
-    <t>71.6319</t>
-  </si>
-  <si>
-    <t>69.2211</t>
-  </si>
-  <si>
-    <t>51.4649</t>
-  </si>
-  <si>
-    <t>77.0488</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56.1231</t>
-  </si>
-  <si>
-    <t>53.2049</t>
   </si>
 </sst>
 </file>
@@ -493,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,7 +474,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -554,7 +518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -562,237 +526,141 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>31000</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>36000</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>41000</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>46000</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6"/>
+      <c r="A14" s="1">
+        <v>11000</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
+      <c r="A15" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1000</v>
+        <v>31000</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>11000</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>16000</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>21000</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>26000</v>
+        <v>1000</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>31000</v>
+        <v>6000</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>46000</v>
+        <v>31000</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>6000</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>11000</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>16000</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>21000</v>
-      </c>
-      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>26000</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>36000</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>31000</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>36000</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>41000</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>46000</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
